--- a/trunk/수정리스트_20160809.xlsx
+++ b/trunk/수정리스트_20160809.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="330">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1198,11 +1198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인화면에서 중간에 안전돋보기~ 안전talk 메뉴화면이 하단의 tab 영역이동시 늘어나 보였다가 이동하는 현상이 있음.
-화면 이동시 메인화면사이즈 변동이 있는지 확인 부탁드립니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>달력 화면에서 &lt;-  , -&gt; 버튼 클릭시 이전달, 다음달로 이벤트 동작되지 않음. 확인요망</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1368,6 +1363,33 @@
 메인화면이 비율대로 처리가 된것 같은데. 아이패드 미니3에서 안전돋보기만 큰게 이상.
 현장명 부분과 메뉴 크기가 다 비율대로 작업되도록 수정요망
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">메인화면에서 중간에 안전돋보기~ 안전talk 메뉴화면이 하단의 tab 영역이동시 늘어나 보였다가 이동하는 현상이 있음.
+화면 이동시 메인화면사이즈 변동이 있는지 확인 부탁드립니다.
+퍼블 처리가 되었는지요? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.08.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">채팅방 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 하단 오른쪽 자료실 안전보건래쳔 버튼이 동일함.
+디자인 작업 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1942,7 +1964,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>5381624</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>1514473</xdr:rowOff>
+      <xdr:rowOff>1590675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1965,8 +1987,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9886950" y="59716458"/>
-          <a:ext cx="533399" cy="948265"/>
+          <a:off x="9886950" y="60087933"/>
+          <a:ext cx="533399" cy="1024467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1986,7 +2008,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>6029324</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>1543049</xdr:rowOff>
+      <xdr:rowOff>1590675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2009,8 +2031,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10510837" y="59702700"/>
-          <a:ext cx="557212" cy="990599"/>
+          <a:off x="10510837" y="60074175"/>
+          <a:ext cx="557212" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3781425</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>53977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4495799</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>1323975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8820150" y="61690252"/>
+          <a:ext cx="714374" cy="1269998"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2311,8 +2377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4663,13 +4729,13 @@
         <v>281</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C105" s="33" t="s">
         <v>76</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E105" s="31" t="s">
         <v>25</v>
@@ -4688,13 +4754,13 @@
       <c r="B106" s="23"/>
       <c r="C106" s="33"/>
       <c r="D106" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E106" s="31" t="s">
         <v>25</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G106" s="16" t="s">
         <v>103</v>
@@ -4708,16 +4774,16 @@
         <v>283</v>
       </c>
       <c r="C107" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D107" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" s="23" t="s">
         <v>297</v>
-      </c>
-      <c r="E107" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>298</v>
       </c>
       <c r="G107" s="16" t="s">
         <v>103</v>
@@ -4725,7 +4791,7 @@
       <c r="H107" s="16"/>
       <c r="I107" s="23"/>
     </row>
-    <row r="108" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" s="19" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="16" t="s">
         <v>282</v>
       </c>
@@ -4734,10 +4800,10 @@
       </c>
       <c r="C108" s="33"/>
       <c r="D108" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="E108" s="31" t="s">
-        <v>25</v>
+        <v>325</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="F108" s="16"/>
       <c r="G108" s="16" t="s">
@@ -4748,166 +4814,189 @@
     </row>
     <row r="109" spans="1:9" s="19" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B109" s="23" t="s">
         <v>284</v>
       </c>
       <c r="C109" s="33"/>
       <c r="D109" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E109" s="31" t="s">
         <v>25</v>
       </c>
       <c r="F109" s="16"/>
       <c r="G109" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H109" s="16"/>
       <c r="I109" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B110" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="B110" s="23" t="s">
+      <c r="C110" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="C110" s="33" t="s">
-        <v>291</v>
-      </c>
       <c r="D110" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E110" s="31" t="s">
         <v>25</v>
       </c>
       <c r="F110" s="16"/>
       <c r="G110" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H110" s="16"/>
       <c r="I110" s="23"/>
     </row>
     <row r="111" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C111" s="33"/>
       <c r="D111" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E111" s="31" t="s">
         <v>25</v>
       </c>
       <c r="F111" s="16"/>
       <c r="G111" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H111" s="16"/>
       <c r="I111" s="23"/>
     </row>
     <row r="112" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C112" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D112" s="17" t="s">
         <v>305</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>306</v>
       </c>
       <c r="E112" s="31" t="s">
         <v>25</v>
       </c>
       <c r="F112" s="16"/>
       <c r="G112" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H112" s="16"/>
       <c r="I112" s="23"/>
     </row>
     <row r="113" spans="1:9" s="19" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B113" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="C113" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="C113" s="33" t="s">
+      <c r="D113" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="D113" s="17" t="s">
+      <c r="E113" s="16" t="s">
         <v>312</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>313</v>
       </c>
       <c r="F113" s="16"/>
       <c r="G113" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H113" s="16"/>
       <c r="I113" s="23"/>
     </row>
     <row r="114" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B114" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="B114" s="23" t="s">
+      <c r="C114" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="C114" s="33" t="s">
+      <c r="D114" s="17" t="s">
         <v>317</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>318</v>
       </c>
       <c r="E114" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F114" s="16"/>
       <c r="G114" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H114" s="16"/>
       <c r="I114" s="23"/>
     </row>
     <row r="115" spans="1:9" s="19" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B115" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="C115" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="C115" s="33" t="s">
+      <c r="D115" s="17" t="s">
         <v>323</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>324</v>
       </c>
       <c r="E115" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F115" s="16"/>
       <c r="G115" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H115" s="16"/>
       <c r="I115" s="23"/>
     </row>
+    <row r="116" spans="1:9" s="19" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="C116" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H116" s="16"/>
+      <c r="I116" s="23"/>
+    </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D118" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
